--- a/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE924D9-4711-4C26-A891-7A537994B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB6BF6-7AC7-476F-B169-EE73B2F210A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10копеек" sheetId="14" r:id="rId1"/>
@@ -945,6 +945,15 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="88">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1602,15 +1611,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
@@ -1661,9 +1661,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="83" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2638,7 +2638,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="81" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -2652,8 +2652,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2667,8 +2667,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3395,7 +3395,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3409,8 +3409,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3424,8 +3424,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4152,7 +4152,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4166,8 +4166,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4181,8 +4181,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4909,7 +4909,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4923,8 +4923,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4938,8 +4938,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4962,11 +4962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H54" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:G13"/>
+      <selection pane="bottomRight" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6088,7 +6088,7 @@
         <v>91</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6212,7 +6212,7 @@
         <v>91</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="13" t="str">
         <f t="shared" ref="G58:G60" si="17">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
@@ -6314,7 +6314,7 @@
         <v>99</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6534,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="13" t="str">
         <f t="shared" ref="G74" si="22">IF(OR(AND(F74&gt;1,F74&lt;&gt;"-")),"Can exchange","")</f>
@@ -6614,7 +6614,7 @@
         <v>100</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="13" t="str">
         <f t="shared" si="0"/>
@@ -6623,16 +6623,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6645,9 +6635,19 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F18 F30 F57 F15 F23:F24 F38 F63 F6:F7 F10 F44 F40 F42 F68 F78">
-    <cfRule type="containsText" dxfId="69" priority="117" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F18 F3 F30 F57 F15 F23:F24 F38 F63 F6:F7 F10 F44 F40 F42 F68 F78">
+    <cfRule type="containsText" dxfId="72" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="118">
@@ -6662,7 +6662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="68" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -6677,7 +6677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="67" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -6691,8 +6691,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F52 F21 F32 F61">
-    <cfRule type="containsText" dxfId="66" priority="111" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F52 F26 F21 F32 F61">
+    <cfRule type="containsText" dxfId="69" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="112">
@@ -6707,7 +6707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="65" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -6722,7 +6722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="64" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="108">
@@ -6737,7 +6737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="63" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -6752,7 +6752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="62" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="104">
@@ -6767,7 +6767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="61" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="102">
@@ -6782,7 +6782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="60" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -6797,7 +6797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="59" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -6812,7 +6812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="58" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="96">
@@ -6827,7 +6827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="57" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -6842,7 +6842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="56" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="84">
@@ -6857,7 +6857,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="55" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -6872,7 +6872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -6887,7 +6887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="53" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
@@ -6902,7 +6902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="52" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -6917,7 +6917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="51" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -6932,7 +6932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="50" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -6947,7 +6947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="49" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -6962,7 +6962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -6977,7 +6977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="47" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -6992,7 +6992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="46" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -7007,7 +7007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="45" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -7021,8 +7021,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39 F41 F43">
-    <cfRule type="containsText" dxfId="44" priority="59" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F41 F39 F43">
+    <cfRule type="containsText" dxfId="47" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -7037,7 +7037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="43" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -7052,7 +7052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="42" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -7067,7 +7067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="41" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -7082,7 +7082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -7097,7 +7097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -7112,7 +7112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7127,7 +7127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="37" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -7142,7 +7142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7157,7 +7157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -7172,7 +7172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -7187,7 +7187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -7202,7 +7202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -7217,7 +7217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -7232,7 +7232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7247,7 +7247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -7262,7 +7262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -7277,7 +7277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7292,7 +7292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -7307,7 +7307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -7322,7 +7322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -7337,7 +7337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7352,7 +7352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7367,7 +7367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -7382,7 +7382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7397,7 +7397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7412,7 +7412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -7427,7 +7427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -7442,7 +7442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8161,8 +8161,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F25 F27 F29">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F27 F25 F29">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8176,8 +8176,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8191,8 +8191,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8215,7 +8215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9062,8 +9062,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F29 F25 F32">
-    <cfRule type="containsText" dxfId="12" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F25 F29 F32">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -9078,7 +9078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -9093,7 +9093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -9108,7 +9108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9123,7 +9123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9138,7 +9138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9153,7 +9153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9168,7 +9168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9183,7 +9183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9198,7 +9198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9213,7 +9213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9229,8 +9229,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9244,8 +9244,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AB6BF6-7AC7-476F-B169-EE73B2F210A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807FF13-0F0F-46DA-9195-923E15D1E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10копеек" sheetId="14" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="110">
   <si>
     <t>Cathedral of the Archangel in Moscow</t>
   </si>
@@ -748,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -849,13 +849,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,13 +968,407 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="134">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -953,14 +1377,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1637,9 +2053,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="87"/>
-      <tableStyleElement type="firstRowStripe" dxfId="86"/>
-      <tableStyleElement type="secondRowStripe" dxfId="85"/>
+      <tableStyleElement type="headerRow" dxfId="133"/>
+      <tableStyleElement type="firstRowStripe" dxfId="132"/>
+      <tableStyleElement type="secondRowStripe" dxfId="131"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1661,9 +2077,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="48" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2638,7 +3054,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -2652,8 +3068,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="129" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -2667,8 +3083,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="128" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3395,7 +3811,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3409,8 +3825,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="126" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3424,8 +3840,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4152,7 +4568,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4166,8 +4582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4181,8 +4597,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="122" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4909,7 +5325,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4923,8 +5339,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="74" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="120" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4938,8 +5354,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4962,11 +5378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H74" sqref="H74"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5050,8 +5466,8 @@
         <v>67</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="1">
-        <v>0</v>
+      <c r="F4" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" ref="G4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
@@ -5116,8 +5532,8 @@
         <v>69</v>
       </c>
       <c r="E7" s="28"/>
-      <c r="F7" s="1">
-        <v>0</v>
+      <c r="F7" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="13"/>
     </row>
@@ -5285,7 +5701,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>1975</v>
       </c>
@@ -5299,7 +5715,7 @@
       <c r="E15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="31">
         <v>1</v>
       </c>
       <c r="G15" s="13" t="str">
@@ -5319,8 +5735,8 @@
         <v>73</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="1">
-        <v>0</v>
+      <c r="F16" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" ref="G16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
@@ -5404,8 +5820,8 @@
         <v>78</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="F20" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -5431,7 +5847,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>1979</v>
       </c>
@@ -5445,7 +5861,7 @@
       <c r="E22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="31">
         <v>1</v>
       </c>
       <c r="G22" s="13" t="str">
@@ -5468,7 +5884,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5519,7 +5935,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1981</v>
       </c>
@@ -5533,7 +5949,7 @@
       <c r="E26" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="31">
         <v>0</v>
       </c>
       <c r="G26" s="13" t="str">
@@ -5553,8 +5969,8 @@
         <v>73</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="1">
-        <v>0</v>
+      <c r="F27" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" ref="G27:G28" si="5">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
@@ -5578,7 +5994,7 @@
         <v>91</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="5"/>
@@ -5599,8 +6015,8 @@
         <v>78</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="1">
-        <v>0</v>
+      <c r="F29" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G29" s="13" t="str">
         <f t="shared" ref="G29" si="6">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
@@ -5641,8 +6057,8 @@
         <v>73</v>
       </c>
       <c r="E31" s="28"/>
-      <c r="F31" s="1">
-        <v>0</v>
+      <c r="F31" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G31" s="13" t="str">
         <f t="shared" ref="G31" si="7">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
@@ -5683,15 +6099,15 @@
         <v>73</v>
       </c>
       <c r="E33" s="28"/>
-      <c r="F33" s="1">
-        <v>0</v>
+      <c r="F33" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G33" s="13" t="str">
         <f t="shared" ref="G33" si="8">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>1983</v>
       </c>
@@ -5707,7 +6123,7 @@
       <c r="E34" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="31">
         <v>0</v>
       </c>
       <c r="G34" s="13" t="str">
@@ -5729,8 +6145,8 @@
         <v>73</v>
       </c>
       <c r="E35" s="28"/>
-      <c r="F35" s="1">
-        <v>0</v>
+      <c r="F35" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G35" s="13" t="str">
         <f t="shared" ref="G35" si="10">IF(OR(AND(F35&gt;1,F35&lt;&gt;"-")),"Can exchange","")</f>
@@ -5771,8 +6187,8 @@
         <v>73</v>
       </c>
       <c r="E37" s="28"/>
-      <c r="F37" s="1">
-        <v>0</v>
+      <c r="F37" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G37" s="13" t="str">
         <f t="shared" ref="G37" si="11">IF(OR(AND(F37&gt;1,F37&lt;&gt;"-")),"Can exchange","")</f>
@@ -5813,8 +6229,8 @@
         <v>73</v>
       </c>
       <c r="E39" s="28"/>
-      <c r="F39" s="1">
-        <v>0</v>
+      <c r="F39" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G39" s="13" t="str">
         <f t="shared" ref="G39:G40" si="12">IF(OR(AND(F39&gt;1,F39&lt;&gt;"-")),"Can exchange","")</f>
@@ -5855,15 +6271,15 @@
         <v>73</v>
       </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="1">
-        <v>0</v>
+      <c r="F41" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G41" s="13" t="str">
         <f t="shared" ref="G41:G43" si="13">IF(OR(AND(F41&gt;1,F41&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>1984</v>
       </c>
@@ -5871,13 +6287,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="34" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="33">
         <v>0</v>
       </c>
       <c r="G42" s="13" t="str">
@@ -5885,7 +6301,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>1984</v>
       </c>
@@ -5893,12 +6309,12 @@
         <v>40</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E43" s="28"/>
-      <c r="F43" s="1">
-        <v>0</v>
+      <c r="F43" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="G43" s="13" t="str">
         <f t="shared" si="13"/>
@@ -5920,7 +6336,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="13" t="str">
         <f t="shared" si="0"/>
@@ -5939,8 +6355,8 @@
         <v>73</v>
       </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="1">
-        <v>0</v>
+      <c r="F45" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G45" s="13" t="str">
         <f t="shared" ref="G45:G46" si="14">IF(OR(AND(F45&gt;1,F45&lt;&gt;"-")),"Can exchange","")</f>
@@ -5962,7 +6378,7 @@
         <v>94</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="13" t="str">
         <f t="shared" si="14"/>
@@ -5981,8 +6397,8 @@
         <v>73</v>
       </c>
       <c r="E47" s="28"/>
-      <c r="F47" s="1">
-        <v>0</v>
+      <c r="F47" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G47" s="13" t="str">
         <f t="shared" ref="G47:G51" si="15">IF(OR(AND(F47&gt;1,F47&lt;&gt;"-")),"Can exchange","")</f>
@@ -6023,15 +6439,15 @@
         <v>73</v>
       </c>
       <c r="E49" s="28"/>
-      <c r="F49" s="1">
-        <v>0</v>
+      <c r="F49" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G49" s="13" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>1985</v>
       </c>
@@ -6045,7 +6461,7 @@
       <c r="E50" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="31">
         <v>0</v>
       </c>
       <c r="G50" s="13" t="str">
@@ -6061,12 +6477,12 @@
         <v>36</v>
       </c>
       <c r="C51" s="11"/>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="32" t="s">
         <v>73</v>
       </c>
       <c r="E51" s="28"/>
-      <c r="F51" s="1">
-        <v>0</v>
+      <c r="F51" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="G51" s="13" t="str">
         <f t="shared" si="15"/>
@@ -6107,8 +6523,8 @@
         <v>78</v>
       </c>
       <c r="E53" s="29"/>
-      <c r="F53" s="1">
-        <v>0</v>
+      <c r="F53" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G53" s="13" t="str">
         <f t="shared" ref="G53:G56" si="16">IF(OR(AND(F53&gt;1,F53&lt;&gt;"-")),"Can exchange","")</f>
@@ -6127,8 +6543,8 @@
         <v>96</v>
       </c>
       <c r="E54" s="28"/>
-      <c r="F54" s="1">
-        <v>0</v>
+      <c r="F54" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G54" s="13" t="str">
         <f t="shared" si="16"/>
@@ -6169,8 +6585,8 @@
         <v>73</v>
       </c>
       <c r="E56" s="28"/>
-      <c r="F56" s="1">
-        <v>0</v>
+      <c r="F56" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G56" s="13" t="str">
         <f t="shared" si="16"/>
@@ -6197,7 +6613,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>1987</v>
       </c>
@@ -6211,7 +6627,7 @@
       <c r="E58" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="31">
         <v>1</v>
       </c>
       <c r="G58" s="13" t="str">
@@ -6281,7 +6697,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>1988</v>
       </c>
@@ -6293,8 +6709,8 @@
       <c r="E62" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="1">
-        <v>0</v>
+      <c r="F62" s="31">
+        <v>1</v>
       </c>
       <c r="G62" s="13" t="str">
         <f t="shared" ref="G62" si="18">IF(OR(AND(F62&gt;1,F62&lt;&gt;"-")),"Can exchange","")</f>
@@ -6334,7 +6750,7 @@
         <v>99</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="13" t="str">
         <f t="shared" ref="G64:G67" si="19">IF(OR(AND(F64&gt;1,F64&lt;&gt;"-")),"Can exchange","")</f>
@@ -6361,7 +6777,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>1989</v>
       </c>
@@ -6373,7 +6789,7 @@
       <c r="E66" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="31">
         <v>0</v>
       </c>
       <c r="G66" s="13" t="str">
@@ -6441,7 +6857,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>1990</v>
       </c>
@@ -6453,7 +6869,7 @@
       <c r="E70" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="31">
         <v>0</v>
       </c>
       <c r="G70" s="13" t="str">
@@ -6521,7 +6937,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>1991</v>
       </c>
@@ -6529,11 +6945,11 @@
         <v>8</v>
       </c>
       <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="33">
         <v>1</v>
       </c>
       <c r="G74" s="13" t="str">
@@ -6541,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>1991</v>
       </c>
@@ -6549,11 +6965,11 @@
         <v>7</v>
       </c>
       <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="35">
         <v>0</v>
       </c>
       <c r="G75" s="13" t="str">
@@ -6574,7 +6990,7 @@
         <v>100</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="13" t="str">
         <f t="shared" ref="G76:G77" si="24">IF(OR(AND(F76&gt;1,F76&lt;&gt;"-")),"Can exchange","")</f>
@@ -6594,14 +7010,14 @@
         <v>100</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>1991</v>
       </c>
@@ -6613,7 +7029,7 @@
       <c r="E78" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="31">
         <v>1</v>
       </c>
       <c r="G78" s="13" t="str">
@@ -6623,6 +7039,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6635,22 +7061,12 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
   </mergeCells>
-  <conditionalFormatting sqref="F18 F3 F30 F57 F15 F23:F24 F38 F63 F6:F7 F10 F44 F40 F42 F68 F78">
-    <cfRule type="containsText" dxfId="72" priority="117" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F18 F30 F57 F15 F23:F24 F38 F63 F6 F10 F44 F40 F68">
+    <cfRule type="containsText" dxfId="22" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6662,10 +7078,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="71" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6677,8 +7093,278 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="70" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52 F21 F32 F61">
+    <cfRule type="containsText" dxfId="116" priority="187" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="114" priority="183" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="113" priority="169" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="112" priority="179" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="111" priority="177" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="109" priority="163" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="108" priority="171" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="107" priority="161" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="104" priority="155" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="101" priority="151" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="99" priority="143" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="88" priority="131" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="83" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="containsText" dxfId="81" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="80" priority="115" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="78" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="77" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="containsText" dxfId="75" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
       <colorScale>
@@ -6691,11 +7377,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F26 F21 F32 F61">
-    <cfRule type="containsText" dxfId="69" priority="111" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="112">
+  <conditionalFormatting sqref="F65">
+    <cfRule type="containsText" dxfId="74" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6706,84 +7392,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="68" priority="109" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="67" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="66" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="65" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="64" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="63" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="72" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
       <colorScale>
@@ -6796,9 +7407,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="containsText" dxfId="71" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
       <colorScale>
@@ -6811,11 +7422,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="61" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="70" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -6826,9 +7437,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="60" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="containsText" dxfId="69" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
       <colorScale>
@@ -6841,9 +7452,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="59" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="containsText" dxfId="68" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="84">
       <colorScale>
@@ -6856,39 +7467,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="58" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="56" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
       <colorScale>
@@ -6901,9 +7482,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="46" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="45" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
       <colorScale>
@@ -6916,24 +7512,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="53" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="44" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
       <colorScale>
@@ -6946,9 +7527,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="52" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="43" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
       <colorScale>
@@ -6961,9 +7557,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="51" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="41" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
@@ -6976,9 +7572,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="50" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="40" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -6991,9 +7587,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="49" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
       <colorScale>
@@ -7006,24 +7602,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41 F39 F43">
-    <cfRule type="containsText" dxfId="47" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="containsText" dxfId="38" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
       <colorScale>
@@ -7036,9 +7617,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="37" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="36" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="35" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
       <colorScale>
@@ -7051,9 +7677,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
@@ -7066,11 +7692,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="44" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7081,9 +7707,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
       <colorScale>
@@ -7096,8 +7722,53 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="30" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -7111,99 +7782,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="40" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="37" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -7216,9 +7797,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -7231,24 +7827,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -7261,9 +7842,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -7276,9 +7857,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -7291,54 +7887,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -7351,9 +7902,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -7366,11 +7917,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -7381,9 +7932,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -7396,54 +7947,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F77))))</formula>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -7470,7 +7976,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A3:XFD24"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8161,8 +8667,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F27 F25 F29">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F25 F27 F29">
+    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8176,8 +8682,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8191,8 +8697,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8215,11 +8721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8796,7 +9302,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>1987</v>
       </c>
@@ -8808,7 +9314,7 @@
       <c r="E25" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="31">
         <v>0</v>
       </c>
       <c r="G25" s="13" t="str">
@@ -8828,7 +9334,7 @@
       <c r="E26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="35">
         <v>0</v>
       </c>
       <c r="G26" s="13" t="str">
@@ -8876,7 +9382,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>1989</v>
       </c>
@@ -8888,7 +9394,7 @@
       <c r="E29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="31">
         <v>0</v>
       </c>
       <c r="G29" s="13" t="str">
@@ -8908,7 +9414,7 @@
       <c r="E30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="35">
         <v>0</v>
       </c>
       <c r="G30" s="13" t="str">
@@ -8956,7 +9462,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>1990</v>
       </c>
@@ -8968,7 +9474,7 @@
       <c r="E33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="31">
         <v>0</v>
       </c>
       <c r="G33" s="13" t="str">
@@ -8988,7 +9494,7 @@
       <c r="E34" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="35">
         <v>0</v>
       </c>
       <c r="G34" s="13" t="str">
@@ -9062,8 +9568,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F25 F29 F32">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F29 F25 F32">
+    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -9078,7 +9584,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -9093,7 +9599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -9108,7 +9614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9123,7 +9629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9138,7 +9644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9153,7 +9659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9168,7 +9674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9183,7 +9689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9198,7 +9704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9213,7 +9719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9229,8 +9735,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23">
+    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9244,8 +9750,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807FF13-0F0F-46DA-9195-923E15D1E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984FD9D9-9D32-499E-9ED4-EDFA00C94141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10копеек" sheetId="14" r:id="rId1"/>
@@ -949,6 +949,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,38 +986,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="134">
+  <dxfs count="94">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1056,327 +1057,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2053,9 +1733,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="133"/>
-      <tableStyleElement type="firstRowStripe" dxfId="132"/>
-      <tableStyleElement type="secondRowStripe" dxfId="131"/>
+      <tableStyleElement type="headerRow" dxfId="93"/>
+      <tableStyleElement type="firstRowStripe" dxfId="92"/>
+      <tableStyleElement type="secondRowStripe" dxfId="91"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2077,9 +1757,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="48" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2368,16 +2048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -2387,8 +2067,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -3054,7 +2734,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3068,8 +2748,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="129" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3083,8 +2763,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="128" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3125,16 +2805,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -3144,8 +2824,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -3811,7 +3491,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="127" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3825,8 +3505,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="126" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -3840,8 +3520,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="125" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3882,16 +3562,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -3901,8 +3581,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -4568,7 +4248,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4582,8 +4262,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4597,8 +4277,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="122" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -4639,16 +4319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -4658,8 +4338,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -5325,7 +5005,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -5339,8 +5019,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
-    <cfRule type="containsText" dxfId="120" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F7 F3 F9 F11 F13 F15 F17 F19 F21 F23 F25 F27 F29">
+    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5354,8 +5034,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5378,11 +5058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5397,16 +5077,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -5416,8 +5096,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -5443,7 +5123,7 @@
       <c r="D3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="33" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="1">
@@ -5465,7 +5145,7 @@
       <c r="D4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="16" t="s">
         <v>59</v>
       </c>
@@ -5509,7 +5189,7 @@
       <c r="D6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="33" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1">
@@ -5531,7 +5211,7 @@
       <c r="D7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="16" t="s">
         <v>59</v>
       </c>
@@ -5598,11 +5278,11 @@
         <v>71</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -5712,10 +5392,10 @@
       <c r="D15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="24">
         <v>1</v>
       </c>
       <c r="G15" s="13" t="str">
@@ -5734,8 +5414,8 @@
       <c r="D16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="13" t="str">
@@ -5800,7 +5480,7 @@
       <c r="D19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="33" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="1">
@@ -5819,7 +5499,7 @@
       <c r="D20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="16" t="s">
         <v>59</v>
       </c>
@@ -5861,7 +5541,7 @@
       <c r="E22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="24">
         <v>1</v>
       </c>
       <c r="G22" s="13" t="str">
@@ -5946,10 +5626,10 @@
       <c r="D26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="24">
         <v>0</v>
       </c>
       <c r="G26" s="13" t="str">
@@ -5968,7 +5648,7 @@
       <c r="D27" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="16" t="s">
         <v>59</v>
       </c>
@@ -5990,7 +5670,7 @@
       <c r="D28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="33" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="1">
@@ -6014,7 +5694,7 @@
       <c r="D29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="16" t="s">
         <v>59</v>
       </c>
@@ -6034,7 +5714,7 @@
       <c r="D30" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F30" s="1">
@@ -6056,7 +5736,7 @@
       <c r="D31" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="16" t="s">
         <v>59</v>
       </c>
@@ -6076,7 +5756,7 @@
       <c r="D32" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F32" s="1">
@@ -6098,7 +5778,7 @@
       <c r="D33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="16" t="s">
         <v>59</v>
       </c>
@@ -6120,10 +5800,10 @@
       <c r="D34" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="24">
         <v>0</v>
       </c>
       <c r="G34" s="13" t="str">
@@ -6144,7 +5824,7 @@
       <c r="D35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="16" t="s">
         <v>59</v>
       </c>
@@ -6164,7 +5844,7 @@
       <c r="D36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="1">
@@ -6186,7 +5866,7 @@
       <c r="D37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="28"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="16" t="s">
         <v>59</v>
       </c>
@@ -6206,7 +5886,7 @@
       <c r="D38" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="1">
@@ -6228,7 +5908,7 @@
       <c r="D39" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="28"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="16" t="s">
         <v>59</v>
       </c>
@@ -6248,7 +5928,7 @@
       <c r="D40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F40" s="1">
@@ -6270,7 +5950,7 @@
       <c r="D41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="28"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="16" t="s">
         <v>59</v>
       </c>
@@ -6287,13 +5967,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="26">
         <v>0</v>
       </c>
       <c r="G42" s="13" t="str">
@@ -6309,11 +5989,11 @@
         <v>40</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="30" t="s">
+      <c r="E43" s="34"/>
+      <c r="F43" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G43" s="13" t="str">
@@ -6332,7 +6012,7 @@
       <c r="D44" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="33" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="1">
@@ -6354,7 +6034,7 @@
       <c r="D45" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="16" t="s">
         <v>59</v>
       </c>
@@ -6374,7 +6054,7 @@
       <c r="D46" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="33" t="s">
         <v>94</v>
       </c>
       <c r="F46" s="1">
@@ -6396,7 +6076,7 @@
       <c r="D47" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="16" t="s">
         <v>59</v>
       </c>
@@ -6416,7 +6096,7 @@
       <c r="D48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F48" s="1">
@@ -6438,7 +6118,7 @@
       <c r="D49" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="28"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="16" t="s">
         <v>59</v>
       </c>
@@ -6458,10 +6138,10 @@
       <c r="D50" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="31">
+      <c r="F50" s="24">
         <v>0</v>
       </c>
       <c r="G50" s="13" t="str">
@@ -6477,11 +6157,11 @@
         <v>36</v>
       </c>
       <c r="C51" s="11"/>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="30" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="23" t="s">
         <v>59</v>
       </c>
       <c r="G51" s="13" t="str">
@@ -6500,7 +6180,7 @@
       <c r="D52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="33" t="s">
         <v>91</v>
       </c>
       <c r="F52" s="1">
@@ -6522,7 +6202,7 @@
       <c r="D53" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="29"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="16" t="s">
         <v>59</v>
       </c>
@@ -6542,7 +6222,7 @@
       <c r="D54" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="28"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="16" t="s">
         <v>59</v>
       </c>
@@ -6562,7 +6242,7 @@
       <c r="D55" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="33" t="s">
         <v>88</v>
       </c>
       <c r="F55" s="1">
@@ -6584,7 +6264,7 @@
       <c r="D56" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="28"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="16" t="s">
         <v>59</v>
       </c>
@@ -6627,7 +6307,7 @@
       <c r="E58" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="31">
+      <c r="F58" s="24">
         <v>1</v>
       </c>
       <c r="G58" s="13" t="str">
@@ -6709,7 +6389,7 @@
       <c r="E62" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="24">
         <v>1</v>
       </c>
       <c r="G62" s="13" t="str">
@@ -6789,7 +6469,7 @@
       <c r="E66" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="24">
         <v>0</v>
       </c>
       <c r="G66" s="13" t="str">
@@ -6869,7 +6549,7 @@
       <c r="E70" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="24">
         <v>0</v>
       </c>
       <c r="G70" s="13" t="str">
@@ -6945,11 +6625,11 @@
         <v>8</v>
       </c>
       <c r="C74" s="11"/>
-      <c r="D74" s="34"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F74" s="26">
         <v>1</v>
       </c>
       <c r="G74" s="13" t="str">
@@ -6965,11 +6645,11 @@
         <v>7</v>
       </c>
       <c r="C75" s="11"/>
-      <c r="D75" s="32"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="28">
         <v>0</v>
       </c>
       <c r="G75" s="13" t="str">
@@ -7029,7 +6709,7 @@
       <c r="E78" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="24">
         <v>1</v>
       </c>
       <c r="G78" s="13" t="str">
@@ -7039,16 +6719,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7061,9 +6731,19 @@
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F18 F30 F57 F15 F23:F24 F38 F63 F6 F10 F44 F40 F68">
-    <cfRule type="containsText" dxfId="22" priority="193" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F18 F3 F30 F57 F15 F23:F24 F38 F63 F6 F10 F44 F40 F68">
+    <cfRule type="containsText" dxfId="78" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="194">
@@ -7078,7 +6758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="118" priority="175" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="175" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="176">
@@ -7093,7 +6773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="117" priority="173" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="173" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -7107,8 +6787,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52 F21 F32 F61">
-    <cfRule type="containsText" dxfId="116" priority="187" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F21 F52 F32 F61">
+    <cfRule type="containsText" dxfId="75" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="188">
@@ -7123,7 +6803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="114" priority="183" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="184">
@@ -7138,7 +6818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="113" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -7153,7 +6833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="112" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -7168,7 +6848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="111" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="178">
@@ -7183,7 +6863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="109" priority="163" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="163" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="164">
@@ -7198,7 +6878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="108" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="172">
@@ -7213,7 +6893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="107" priority="161" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="161" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="162">
@@ -7228,7 +6908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="104" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="156">
@@ -7243,7 +6923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="101" priority="151" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="151" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="152">
@@ -7258,7 +6938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="99" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="144">
@@ -7273,7 +6953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="88" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="132">
@@ -7288,7 +6968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="83" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F59))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
@@ -7303,7 +6983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="81" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="108">
@@ -7318,7 +6998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="80" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="116">
@@ -7333,7 +7013,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="78" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F64))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="102">
@@ -7348,7 +7028,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="77" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F69))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -7363,7 +7043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="75" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -7378,7 +7058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="74" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="96">
@@ -7393,7 +7073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="72" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -7408,7 +7088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="71" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="88">
@@ -7423,7 +7103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="70" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -7438,7 +7118,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="69" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -7453,7 +7133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="68" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="84">
@@ -7468,7 +7148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F77))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
@@ -7483,7 +7163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="46" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="76">
@@ -7498,7 +7178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="45" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -7513,7 +7193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="44" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="72">
@@ -7528,7 +7208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="43" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -7543,7 +7223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="42" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -7558,7 +7238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="41" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -7573,7 +7253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="40" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -7588,7 +7268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -7603,7 +7283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="38" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -7618,7 +7298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="37" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -7633,7 +7313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="36" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="56">
@@ -7648,7 +7328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="35" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -7663,7 +7343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="52">
@@ -7678,7 +7358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -7693,7 +7373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="32" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="48">
@@ -7708,7 +7388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="31" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F49))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -7723,7 +7403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="30" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -7738,7 +7418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F53))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -7753,7 +7433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="28" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F54))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -7768,7 +7448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -7783,7 +7463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -7798,7 +7478,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -7813,7 +7493,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -7828,7 +7508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F58))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -7843,7 +7523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="17" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -7858,7 +7538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -7873,7 +7553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -7888,7 +7568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -7903,7 +7583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F78))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -7918,7 +7598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -7933,7 +7613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F48))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -7948,7 +7628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7990,16 +7670,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -8009,8 +7689,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -8667,8 +8347,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F25 F27 F29">
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F27 F25 F29">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -8682,8 +8362,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -8697,8 +8377,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24 F26 F28">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -8721,7 +8401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8739,16 +8419,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
@@ -8758,8 +8438,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
@@ -9314,7 +8994,7 @@
       <c r="E25" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="24">
         <v>0</v>
       </c>
       <c r="G25" s="13" t="str">
@@ -9334,7 +9014,7 @@
       <c r="E26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="28">
         <v>0</v>
       </c>
       <c r="G26" s="13" t="str">
@@ -9394,7 +9074,7 @@
       <c r="E29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="24">
         <v>0</v>
       </c>
       <c r="G29" s="13" t="str">
@@ -9414,7 +9094,7 @@
       <c r="E30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="28">
         <v>0</v>
       </c>
       <c r="G30" s="13" t="str">
@@ -9474,7 +9154,7 @@
       <c r="E33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="24">
         <v>0</v>
       </c>
       <c r="G33" s="13" t="str">
@@ -9494,7 +9174,7 @@
       <c r="E34" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="28">
         <v>0</v>
       </c>
       <c r="G34" s="13" t="str">
@@ -9568,8 +9248,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F29 F25 F32">
-    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F25 F29 F32">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -9584,7 +9264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -9599,7 +9279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -9614,7 +9294,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -9629,7 +9309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -9644,7 +9324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="57" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -9659,7 +9339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="56" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F36))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -9674,7 +9354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -9689,7 +9369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -9704,7 +9384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F35))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -9719,7 +9399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9735,8 +9415,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F5 F7 F9 F11 F13 F15 F17 F19 F21 F23">
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F5 F3 F7 F9 F11 F13 F15 F17 F19 F21 F23">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -9750,8 +9430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4 F6 F8 F10 F12 F14 F16 F18 F20 F22 F24">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F6 F4 F8 F10 F12 F14 F16 F18 F20 F22 F24">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Commemorative#[1965-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984FD9D9-9D32-499E-9ED4-EDFA00C94141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AADA4-ECCF-43FC-BD61-511AEA9B272B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10копеек" sheetId="14" r:id="rId1"/>
@@ -22,6 +22,15 @@
     <sheet name="5рублей" sheetId="20" r:id="rId7"/>
     <sheet name="Links" sheetId="11" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'10копеек'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'15копеек'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1рубль'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20копеек'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3рубля'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'50копеек'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'5рублей'!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -318,7 +327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="115">
   <si>
     <t>Cathedral of the Archangel in Moscow</t>
   </si>
@@ -479,9 +488,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -491,12 +497,6 @@
     <t>10копеек</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -648,13 +648,37 @@
   </si>
   <si>
     <t>M&amp;SP</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>$Album_page</t>
+  </si>
+  <si>
+    <t>1st page</t>
+  </si>
+  <si>
+    <t>2nd page</t>
+  </si>
+  <si>
+    <t>3rd page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -694,6 +718,8 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -709,8 +735,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,8 +780,26 @@
         <bgColor rgb="FFF2DBDB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -879,13 +930,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -966,6 +1048,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2030,56 +2145,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="A32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2088,19 +2203,19 @@
         <v>1965</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="str">
         <f t="shared" ref="G3:G4" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2112,19 +2227,19 @@
         <v>1966</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2141,7 +2256,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2156,19 +2271,19 @@
         <v>1968</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" ref="G6:G29" si="2">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
@@ -2180,19 +2295,19 @@
         <v>1969</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2204,19 +2319,19 @@
         <v>1970</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2228,19 +2343,19 @@
         <v>1971</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2252,19 +2367,19 @@
         <v>1972</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2276,19 +2391,19 @@
         <v>1973</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2300,19 +2415,19 @@
         <v>1974</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2324,19 +2439,19 @@
         <v>1975</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2348,19 +2463,19 @@
         <v>1976</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2372,19 +2487,19 @@
         <v>1977</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2396,19 +2511,19 @@
         <v>1978</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2420,19 +2535,19 @@
         <v>1979</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2444,19 +2559,19 @@
         <v>1980</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2468,19 +2583,19 @@
         <v>1981</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2492,19 +2607,19 @@
         <v>1982</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2516,19 +2631,19 @@
         <v>1983</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2540,19 +2655,19 @@
         <v>1984</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2564,19 +2679,19 @@
         <v>1985</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2588,19 +2703,19 @@
         <v>1986</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2612,19 +2727,19 @@
         <v>1987</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2636,19 +2751,19 @@
         <v>1988</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2660,19 +2775,19 @@
         <v>1989</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2684,19 +2799,19 @@
         <v>1990</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2708,19 +2823,19 @@
         <v>1991</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="13" t="str">
         <f t="shared" si="2"/>
@@ -2728,9 +2843,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
@@ -2791,52 +2906,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2845,19 +2960,19 @@
         <v>1965</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="str">
         <f t="shared" ref="G3:G29" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -2869,19 +2984,19 @@
         <v>1966</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2898,7 +3013,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -2913,19 +3028,19 @@
         <v>1968</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2937,19 +3052,19 @@
         <v>1969</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2961,19 +3076,19 @@
         <v>1970</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -2985,19 +3100,19 @@
         <v>1971</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3009,19 +3124,19 @@
         <v>1972</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3033,19 +3148,19 @@
         <v>1973</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3057,19 +3172,19 @@
         <v>1974</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3081,19 +3196,19 @@
         <v>1975</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3105,19 +3220,19 @@
         <v>1976</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3129,19 +3244,19 @@
         <v>1977</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3153,19 +3268,19 @@
         <v>1978</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3177,19 +3292,19 @@
         <v>1979</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3201,19 +3316,19 @@
         <v>1980</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3225,19 +3340,19 @@
         <v>1981</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3249,19 +3364,19 @@
         <v>1982</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3273,19 +3388,19 @@
         <v>1983</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3297,19 +3412,19 @@
         <v>1984</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3321,19 +3436,19 @@
         <v>1985</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3345,19 +3460,19 @@
         <v>1986</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3369,19 +3484,19 @@
         <v>1987</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3393,19 +3508,19 @@
         <v>1988</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3417,19 +3532,19 @@
         <v>1989</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3441,19 +3556,19 @@
         <v>1990</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3465,19 +3580,19 @@
         <v>1991</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3485,9 +3600,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
@@ -3548,52 +3663,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -3602,19 +3717,19 @@
         <v>1965</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="str">
         <f t="shared" ref="G3:G29" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -3626,19 +3741,19 @@
         <v>1966</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3655,7 +3770,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -3670,19 +3785,19 @@
         <v>1968</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3694,19 +3809,19 @@
         <v>1969</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3718,19 +3833,19 @@
         <v>1970</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3742,19 +3857,19 @@
         <v>1971</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3766,19 +3881,19 @@
         <v>1972</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3790,19 +3905,19 @@
         <v>1973</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3814,19 +3929,19 @@
         <v>1974</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3838,19 +3953,19 @@
         <v>1975</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3862,19 +3977,19 @@
         <v>1976</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3886,19 +4001,19 @@
         <v>1977</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3910,19 +4025,19 @@
         <v>1978</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3934,19 +4049,19 @@
         <v>1979</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3958,19 +4073,19 @@
         <v>1980</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -3982,19 +4097,19 @@
         <v>1981</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4006,19 +4121,19 @@
         <v>1982</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4030,19 +4145,19 @@
         <v>1983</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4054,19 +4169,19 @@
         <v>1984</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4078,19 +4193,19 @@
         <v>1985</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4102,19 +4217,19 @@
         <v>1986</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4126,19 +4241,19 @@
         <v>1987</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4150,19 +4265,19 @@
         <v>1988</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4174,19 +4289,19 @@
         <v>1989</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4198,19 +4313,19 @@
         <v>1990</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4222,19 +4337,19 @@
         <v>1991</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4242,9 +4357,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
@@ -4305,52 +4420,52 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -4359,19 +4474,19 @@
         <v>1965</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="str">
         <f t="shared" ref="G3:G29" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
@@ -4383,19 +4498,19 @@
         <v>1966</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4412,7 +4527,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -4427,19 +4542,19 @@
         <v>1968</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4451,19 +4566,19 @@
         <v>1969</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4475,19 +4590,19 @@
         <v>1970</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4499,19 +4614,19 @@
         <v>1971</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4523,19 +4638,19 @@
         <v>1972</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4547,19 +4662,19 @@
         <v>1973</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4571,19 +4686,19 @@
         <v>1974</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4595,19 +4710,19 @@
         <v>1975</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4619,19 +4734,19 @@
         <v>1976</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4643,19 +4758,19 @@
         <v>1977</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4667,19 +4782,19 @@
         <v>1978</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4691,19 +4806,19 @@
         <v>1979</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4715,19 +4830,19 @@
         <v>1980</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4739,19 +4854,19 @@
         <v>1981</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4763,19 +4878,19 @@
         <v>1982</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G20" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4787,19 +4902,19 @@
         <v>1983</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G21" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4811,19 +4926,19 @@
         <v>1984</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4835,19 +4950,19 @@
         <v>1985</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4859,19 +4974,19 @@
         <v>1986</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4883,19 +4998,19 @@
         <v>1987</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4907,19 +5022,19 @@
         <v>1988</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4931,19 +5046,19 @@
         <v>1989</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4955,19 +5070,19 @@
         <v>1990</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G28" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4979,19 +5094,19 @@
         <v>1991</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G29" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4999,9 +5114,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F5">
@@ -5056,63 +5171,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1965</v>
       </c>
@@ -5121,20 +5241,23 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="str">
-        <f t="shared" ref="G3:G78" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="13" t="str">
+        <f t="shared" ref="H3:H78" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>1965</v>
       </c>
@@ -5143,42 +5266,44 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="E4" s="45"/>
       <c r="F4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f t="shared" ref="G4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="13" t="str">
+        <f t="shared" ref="H4" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1966</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1967</v>
       </c>
@@ -5187,20 +5312,21 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="33"/>
+      <c r="H6" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1967</v>
       </c>
@@ -5209,63 +5335,66 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="E7" s="45"/>
       <c r="F7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1968</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1969</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1970</v>
       </c>
@@ -5275,113 +5404,118 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="33"/>
+      <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1971</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1972</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1973</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>1974</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>1975</v>
       </c>
@@ -5390,20 +5524,21 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="24">
         <v>1</v>
       </c>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="33"/>
+      <c r="H15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>1975</v>
       </c>
@@ -5412,64 +5547,67 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E16" s="45"/>
       <c r="F16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="13" t="str">
-        <f t="shared" ref="G16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="13" t="str">
+        <f t="shared" ref="H16" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>1976</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1977</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="33"/>
+      <c r="H18" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>1977</v>
       </c>
@@ -5478,17 +5616,18 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="33"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>1977</v>
       </c>
@@ -5497,125 +5636,131 @@
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="34"/>
+        <v>75</v>
+      </c>
+      <c r="E20" s="45"/>
       <c r="F20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>1978</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="13" t="str">
+      <c r="G21" s="33"/>
+      <c r="H21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>1979</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="13" t="str">
-        <f t="shared" ref="G22" si="3">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="33"/>
+      <c r="H22" s="13" t="str">
+        <f t="shared" ref="H22" si="3">IF(OR(AND(F22&gt;1,F22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>1979</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="33"/>
+      <c r="H23" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>1980</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="33"/>
+      <c r="H24" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>1980</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="13" t="str">
-        <f t="shared" ref="G25" si="4">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G25" s="33"/>
+      <c r="H25" s="13" t="str">
+        <f t="shared" ref="H25" si="4">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>1981</v>
       </c>
@@ -5624,20 +5769,21 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F26" s="24">
         <v>0</v>
       </c>
-      <c r="G26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="33"/>
+      <c r="H26" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>1981</v>
       </c>
@@ -5646,64 +5792,67 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="13" t="str">
-        <f t="shared" ref="G27:G28" si="5">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="13" t="str">
+        <f t="shared" ref="H27:H28" si="5">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>1981</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="13" t="str">
+      <c r="G28" s="33"/>
+      <c r="H28" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>1981</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="34"/>
+        <v>75</v>
+      </c>
+      <c r="E29" s="45"/>
       <c r="F29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="13" t="str">
-        <f t="shared" ref="G29" si="6">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="13" t="str">
+        <f t="shared" ref="H29" si="6">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>1982</v>
       </c>
@@ -5712,20 +5861,21 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="33"/>
+      <c r="H30" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>1982</v>
       </c>
@@ -5734,18 +5884,19 @@
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E31" s="45"/>
       <c r="F31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="13" t="str">
-        <f t="shared" ref="G31" si="7">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="13" t="str">
+        <f t="shared" ref="H31" si="7">IF(OR(AND(F31&gt;1,F31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>1983</v>
       </c>
@@ -5754,20 +5905,21 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="33"/>
+      <c r="H32" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>1983</v>
       </c>
@@ -5776,64 +5928,67 @@
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E33" s="45"/>
       <c r="F33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="13" t="str">
-        <f t="shared" ref="G33" si="8">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="13" t="str">
+        <f t="shared" ref="H33" si="8">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>1983</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F34" s="24">
         <v>0</v>
       </c>
-      <c r="G34" s="13" t="str">
-        <f t="shared" ref="G34:G36" si="9">IF(OR(AND(F34&gt;1,F34&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="33"/>
+      <c r="H34" s="13" t="str">
+        <f t="shared" ref="H34:H36" si="9">IF(OR(AND(F34&gt;1,F34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>1983</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E35" s="45"/>
       <c r="F35" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="13" t="str">
-        <f t="shared" ref="G35" si="10">IF(OR(AND(F35&gt;1,F35&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="13" t="str">
+        <f t="shared" ref="H35" si="10">IF(OR(AND(F35&gt;1,F35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>1983</v>
       </c>
@@ -5842,20 +5997,21 @@
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="13" t="str">
+      <c r="G36" s="33"/>
+      <c r="H36" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>1983</v>
       </c>
@@ -5864,18 +6020,19 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E37" s="45"/>
       <c r="F37" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="13" t="str">
-        <f t="shared" ref="G37" si="11">IF(OR(AND(F37&gt;1,F37&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="13" t="str">
+        <f t="shared" ref="H37" si="11">IF(OR(AND(F37&gt;1,F37&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>1984</v>
       </c>
@@ -5884,20 +6041,21 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="33"/>
+      <c r="H38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>1984</v>
       </c>
@@ -5906,18 +6064,19 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E39" s="45"/>
       <c r="F39" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="13" t="str">
-        <f t="shared" ref="G39:G40" si="12">IF(OR(AND(F39&gt;1,F39&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="13" t="str">
+        <f t="shared" ref="H39:H40" si="12">IF(OR(AND(F39&gt;1,F39&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>1984</v>
       </c>
@@ -5926,20 +6085,21 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="13" t="str">
+      <c r="G40" s="33"/>
+      <c r="H40" s="13" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>1984</v>
       </c>
@@ -5948,18 +6108,19 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E41" s="45"/>
       <c r="F41" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="13" t="str">
-        <f t="shared" ref="G41:G43" si="13">IF(OR(AND(F41&gt;1,F41&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="13" t="str">
+        <f t="shared" ref="H41:H43" si="13">IF(OR(AND(F41&gt;1,F41&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>1984</v>
       </c>
@@ -5968,20 +6129,21 @@
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F42" s="26">
         <v>0</v>
       </c>
-      <c r="G42" s="13" t="str">
+      <c r="G42" s="34"/>
+      <c r="H42" s="13" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>1984</v>
       </c>
@@ -5990,18 +6152,21 @@
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E43" s="45"/>
       <c r="F43" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="13" t="str">
+        <v>56</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="13" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>1985</v>
       </c>
@@ -6010,20 +6175,21 @@
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="36"/>
+      <c r="H44" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>1985</v>
       </c>
@@ -6032,18 +6198,19 @@
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E45" s="45"/>
       <c r="F45" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="13" t="str">
-        <f t="shared" ref="G45:G46" si="14">IF(OR(AND(F45&gt;1,F45&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="13" t="str">
+        <f t="shared" ref="H45:H46" si="14">IF(OR(AND(F45&gt;1,F45&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>1985</v>
       </c>
@@ -6052,20 +6219,21 @@
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="G46" s="13" t="str">
+      <c r="G46" s="36"/>
+      <c r="H46" s="13" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>1985</v>
       </c>
@@ -6074,18 +6242,19 @@
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E47" s="45"/>
       <c r="F47" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="13" t="str">
-        <f t="shared" ref="G47:G51" si="15">IF(OR(AND(F47&gt;1,F47&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="13" t="str">
+        <f t="shared" ref="H47:H51" si="15">IF(OR(AND(F47&gt;1,F47&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>1985</v>
       </c>
@@ -6094,20 +6263,21 @@
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="13" t="str">
+      <c r="G48" s="36"/>
+      <c r="H48" s="13" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>1985</v>
       </c>
@@ -6116,18 +6286,19 @@
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E49" s="45"/>
       <c r="F49" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="13" t="str">
+        <v>56</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="13" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>1985</v>
       </c>
@@ -6136,20 +6307,21 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F50" s="24">
         <v>0</v>
       </c>
-      <c r="G50" s="13" t="str">
+      <c r="G50" s="36"/>
+      <c r="H50" s="13" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>1985</v>
       </c>
@@ -6158,18 +6330,19 @@
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E51" s="45"/>
       <c r="F51" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="13" t="str">
+        <v>56</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="13" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>1986</v>
       </c>
@@ -6178,20 +6351,21 @@
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="36"/>
+      <c r="H52" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>1986</v>
       </c>
@@ -6200,18 +6374,19 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="E53" s="46"/>
       <c r="F53" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="13" t="str">
-        <f t="shared" ref="G53:G56" si="16">IF(OR(AND(F53&gt;1,F53&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="13" t="str">
+        <f t="shared" ref="H53:H56" si="16">IF(OR(AND(F53&gt;1,F53&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>1986</v>
       </c>
@@ -6220,18 +6395,19 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="34"/>
+        <v>93</v>
+      </c>
+      <c r="E54" s="45"/>
       <c r="F54" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" s="13" t="str">
+        <v>56</v>
+      </c>
+      <c r="G54" s="36"/>
+      <c r="H54" s="13" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>1986</v>
       </c>
@@ -6240,20 +6416,21 @@
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
-      <c r="G55" s="13" t="str">
+      <c r="G55" s="36"/>
+      <c r="H55" s="13" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>1986</v>
       </c>
@@ -6262,18 +6439,19 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="E56" s="45"/>
       <c r="F56" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="13" t="str">
+        <v>56</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="13" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>1987</v>
       </c>
@@ -6283,61 +6461,64 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G57" s="36"/>
+      <c r="H57" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>1987</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F58" s="24">
         <v>1</v>
       </c>
-      <c r="G58" s="13" t="str">
-        <f t="shared" ref="G58:G60" si="17">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="36"/>
+      <c r="H58" s="13" t="str">
+        <f t="shared" ref="H58:H60" si="17">IF(OR(AND(F58&gt;1,F58&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>1987</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
       </c>
-      <c r="G59" s="13" t="str">
+      <c r="G59" s="36"/>
+      <c r="H59" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>1987</v>
       </c>
@@ -6347,17 +6528,18 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
       </c>
-      <c r="G60" s="13" t="str">
+      <c r="G60" s="36"/>
+      <c r="H60" s="13" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>1988</v>
       </c>
@@ -6367,17 +6549,18 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G61" s="36"/>
+      <c r="H61" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>1988</v>
       </c>
@@ -6387,17 +6570,18 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F62" s="24">
         <v>1</v>
       </c>
-      <c r="G62" s="13" t="str">
-        <f t="shared" ref="G62" si="18">IF(OR(AND(F62&gt;1,F62&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="36"/>
+      <c r="H62" s="13" t="str">
+        <f t="shared" ref="H62" si="18">IF(OR(AND(F62&gt;1,F62&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>1989</v>
       </c>
@@ -6407,17 +6591,18 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F63" s="1">
         <v>1</v>
       </c>
-      <c r="G63" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="36"/>
+      <c r="H63" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>1989</v>
       </c>
@@ -6427,17 +6612,18 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
       </c>
-      <c r="G64" s="13" t="str">
-        <f t="shared" ref="G64:G67" si="19">IF(OR(AND(F64&gt;1,F64&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G64" s="36"/>
+      <c r="H64" s="13" t="str">
+        <f t="shared" ref="H64:H67" si="19">IF(OR(AND(F64&gt;1,F64&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>1989</v>
       </c>
@@ -6447,17 +6633,18 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="13" t="str">
-        <f t="shared" ref="G65" si="20">IF(OR(AND(F65&gt;1,F65&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G65" s="36"/>
+      <c r="H65" s="13" t="str">
+        <f t="shared" ref="H65" si="20">IF(OR(AND(F65&gt;1,F65&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
         <v>1989</v>
       </c>
@@ -6467,17 +6654,18 @@
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F66" s="24">
         <v>0</v>
       </c>
-      <c r="G66" s="13" t="str">
+      <c r="G66" s="36"/>
+      <c r="H66" s="13" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>1989</v>
       </c>
@@ -6487,17 +6675,18 @@
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="13" t="str">
+      <c r="G67" s="36"/>
+      <c r="H67" s="13" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>1990</v>
       </c>
@@ -6507,17 +6696,18 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G68" s="36"/>
+      <c r="H68" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>1990</v>
       </c>
@@ -6527,17 +6717,18 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="13" t="str">
-        <f t="shared" ref="G69:G73" si="21">IF(OR(AND(F69&gt;1,F69&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G69" s="36"/>
+      <c r="H69" s="13" t="str">
+        <f t="shared" ref="H69:H73" si="21">IF(OR(AND(F69&gt;1,F69&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
         <v>1990</v>
       </c>
@@ -6547,17 +6738,18 @@
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70" s="24">
         <v>0</v>
       </c>
-      <c r="G70" s="13" t="str">
+      <c r="G70" s="36"/>
+      <c r="H70" s="13" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>1990</v>
       </c>
@@ -6567,17 +6759,18 @@
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
-      <c r="G71" s="13" t="str">
+      <c r="G71" s="36"/>
+      <c r="H71" s="13" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>1990</v>
       </c>
@@ -6587,17 +6780,18 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="13" t="str">
+      <c r="G72" s="36"/>
+      <c r="H72" s="13" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>1991</v>
       </c>
@@ -6607,17 +6801,18 @@
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
-      <c r="G73" s="13" t="str">
+      <c r="G73" s="36"/>
+      <c r="H73" s="13" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
         <v>1991</v>
       </c>
@@ -6627,17 +6822,18 @@
       <c r="C74" s="11"/>
       <c r="D74" s="27"/>
       <c r="E74" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F74" s="26">
         <v>1</v>
       </c>
-      <c r="G74" s="13" t="str">
-        <f t="shared" ref="G74" si="22">IF(OR(AND(F74&gt;1,F74&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="37"/>
+      <c r="H74" s="13" t="str">
+        <f t="shared" ref="H74" si="22">IF(OR(AND(F74&gt;1,F74&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>1991</v>
       </c>
@@ -6647,17 +6843,20 @@
       <c r="C75" s="11"/>
       <c r="D75" s="25"/>
       <c r="E75" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F75" s="28">
         <v>0</v>
       </c>
-      <c r="G75" s="13" t="str">
-        <f t="shared" ref="G75" si="23">IF(OR(AND(F75&gt;1,F75&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G75" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H75" s="13" t="str">
+        <f t="shared" ref="H75" si="23">IF(OR(AND(F75&gt;1,F75&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>1991</v>
       </c>
@@ -6667,17 +6866,18 @@
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="13" t="str">
-        <f t="shared" ref="G76:G77" si="24">IF(OR(AND(F76&gt;1,F76&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G76" s="39"/>
+      <c r="H76" s="13" t="str">
+        <f t="shared" ref="H76:H77" si="24">IF(OR(AND(F76&gt;1,F76&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>1991</v>
       </c>
@@ -6687,17 +6887,18 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="G77" s="13" t="str">
+      <c r="G77" s="39"/>
+      <c r="H77" s="13" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
         <v>1991</v>
       </c>
@@ -6707,21 +6908,22 @@
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F78" s="24">
         <v>1</v>
       </c>
-      <c r="G78" s="13" t="str">
+      <c r="G78" s="39"/>
+      <c r="H78" s="13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="21">
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E6:E7"/>
@@ -6742,7 +6944,7 @@
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="E46:E47"/>
   </mergeCells>
-  <conditionalFormatting sqref="F18 F3 F30 F57 F15 F23:F24 F38 F63 F6 F10 F44 F40 F68">
+  <conditionalFormatting sqref="F3 F18 F30 F57 F15 F23:F24 F38 F63 F6 F10 F44 F40 F68">
     <cfRule type="containsText" dxfId="78" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
@@ -7656,77 +7858,80 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+        <v>98</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1965</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="13" t="str">
-        <f t="shared" ref="G3:G28" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>56</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -7734,504 +7939,441 @@
         <v>1966</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1967</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1968</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1969</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1970</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1971</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1972</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1973</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1974</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1975</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>1976</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>1977</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>1978</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>1979</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1980</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>1981</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>1982</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>1983</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>1984</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>1985</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>1986</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
@@ -8243,39 +8385,33 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="13" t="str">
-        <f>IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>1988</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
@@ -8287,39 +8423,33 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="13" t="str">
-        <f>IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>1990</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
@@ -8331,20 +8461,17 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="13" t="str">
-        <f>IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G29" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F27 F25 F29">
@@ -8405,77 +8532,80 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="4" width="24.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+        <v>99</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>1965</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="13" t="str">
-        <f t="shared" ref="G3:G24" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>56</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -8483,504 +8613,441 @@
         <v>1966</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>1967</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1968</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>1969</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>1970</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>1971</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>1972</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>1973</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>1974</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>1975</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>1976</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>1977</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>1978</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>1979</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>1980</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>1981</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>1982</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>1983</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>1984</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>1985</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>1986</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
@@ -8992,15 +9059,12 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
       </c>
-      <c r="G25" s="13" t="str">
-        <f t="shared" ref="G25:G37" si="1">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -9012,15 +9076,12 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="28">
         <v>0</v>
       </c>
-      <c r="G26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
@@ -9032,15 +9093,12 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="13" t="str">
-        <f t="shared" ref="G27:G28" si="2">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
@@ -9052,15 +9110,12 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
@@ -9072,15 +9127,12 @@
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F29" s="24">
         <v>0</v>
       </c>
-      <c r="G29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
@@ -9092,15 +9144,12 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F30" s="28">
         <v>0</v>
       </c>
-      <c r="G30" s="13" t="str">
-        <f t="shared" ref="G30:G31" si="3">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
@@ -9112,15 +9161,12 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
@@ -9132,15 +9178,12 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G32" s="39"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
@@ -9152,15 +9195,12 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F33" s="24">
         <v>0</v>
       </c>
-      <c r="G33" s="13" t="str">
-        <f t="shared" ref="G33:G34" si="4">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
@@ -9172,15 +9212,12 @@
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F34" s="28">
         <v>0</v>
       </c>
-      <c r="G34" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
@@ -9192,15 +9229,12 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="13" t="str">
-        <f t="shared" ref="G35" si="5">IF(OR(AND(F35&gt;1,F35&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
@@ -9212,15 +9246,12 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="13" t="str">
-        <f t="shared" ref="G36" si="6">IF(OR(AND(F36&gt;1,F36&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
@@ -9232,20 +9263,17 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="17">
         <v>1</v>
       </c>
-      <c r="G37" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="G37" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F25 F29 F32">
@@ -9470,13 +9498,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9484,10 +9512,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
